--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D059F7F-5ADE-C540-B1DF-A9FBFC58DB9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DC965E-F838-224A-9650-255E78D5E5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="2" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
@@ -451,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8897DA34-104B-FE4B-8F17-2052ED947067}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EC0CE-B93D-2E48-B44E-AEF86A53C280}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585252EE-2B1A-1D40-9D79-E430E2E0530B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DC965E-F838-224A-9650-255E78D5E5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222415C4-7A67-F946-94F4-BC9CFF4EF4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="2" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
     <sheet name="Analysts" sheetId="1" r:id="rId2"/>
-    <sheet name="Projects" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Projects" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>identifiação</t>
   </si>
@@ -98,16 +99,110 @@
   </si>
   <si>
     <t>presencial</t>
+  </si>
+  <si>
+    <t>1 mes</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>6 meses</t>
+  </si>
+  <si>
+    <t>1 ano</t>
+  </si>
+  <si>
+    <t>1 ano e meio</t>
+  </si>
+  <si>
+    <t>2 anos</t>
+  </si>
+  <si>
+    <t>Linguagens</t>
+  </si>
+  <si>
+    <t>Orçamento</t>
+  </si>
+  <si>
+    <t>2 mi</t>
+  </si>
+  <si>
+    <t>4 mi</t>
+  </si>
+  <si>
+    <t>Regime de trabalho</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
+    <t>Remoto</t>
+  </si>
+  <si>
+    <t>velocidade</t>
+  </si>
+  <si>
+    <t>tarefas</t>
+  </si>
+  <si>
+    <t>tarefas p/ semana</t>
+  </si>
+  <si>
+    <t>semanas</t>
+  </si>
+  <si>
+    <t>qtd tarefas</t>
+  </si>
+  <si>
+    <t>custo</t>
+  </si>
+  <si>
+    <t>30/h</t>
+  </si>
+  <si>
+    <t>c, java</t>
+  </si>
+  <si>
+    <t>presencial e remoto</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>4 meses/ R$ 2.000.000,00</t>
+  </si>
+  <si>
+    <t>6 meses/ R$ 1.500.000,00</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,8 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8897DA34-104B-FE4B-8F17-2052ED947067}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +559,7 @@
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -471,8 +569,11 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,8 +583,11 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -494,7 +598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -502,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -510,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -525,19 +629,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EC0CE-B93D-2E48-B44E-AEF86A53C280}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,6 +674,110 @@
       </c>
       <c r="E2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <f>K4/I4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L8" si="0">K5/I5</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -577,21 +786,209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585252EE-2B1A-1D40-9D79-E430E2E0530B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DFE59F-DEA2-CA47-B478-E4A0C0F82554}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585252EE-2B1A-1D40-9D79-E430E2E0530B}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222415C4-7A67-F946-94F4-BC9CFF4EF4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED378390-E185-534A-B958-C9E27BE0E9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>identifiação</t>
   </si>
@@ -140,33 +162,15 @@
     <t>Remoto</t>
   </si>
   <si>
-    <t>velocidade</t>
-  </si>
-  <si>
     <t>tarefas</t>
   </si>
   <si>
     <t>tarefas p/ semana</t>
   </si>
   <si>
-    <t>semanas</t>
-  </si>
-  <si>
     <t>qtd tarefas</t>
   </si>
   <si>
-    <t>custo</t>
-  </si>
-  <si>
-    <t>30/h</t>
-  </si>
-  <si>
-    <t>c, java</t>
-  </si>
-  <si>
-    <t>presencial e remoto</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -183,6 +187,39 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Duração tarefas em horas</t>
+  </si>
+  <si>
+    <t>h/tarefa</t>
+  </si>
+  <si>
+    <t>Velocidade x Custo</t>
+  </si>
+  <si>
+    <t>Exemplo</t>
+  </si>
+  <si>
+    <t>Duração em semanas</t>
+  </si>
+  <si>
+    <t>Custo total</t>
+  </si>
+  <si>
+    <t>Sample data</t>
+  </si>
+  <si>
+    <t>Linguagem</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Duração do projeto em horas</t>
+  </si>
+  <si>
+    <t>Duração em meses</t>
   </si>
 </sst>
 </file>
@@ -190,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -202,21 +239,33 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,15 +273,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8897DA34-104B-FE4B-8F17-2052ED947067}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +628,7 @@
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -569,11 +638,8 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -583,11 +649,8 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -598,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -606,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -614,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -629,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EC0CE-B93D-2E48-B44E-AEF86A53C280}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,147 +703,467 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>senior</v>
+      </c>
+      <c r="D3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f>40/H3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>trainee</v>
+      </c>
+      <c r="D4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I7" si="0">40/H4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>especialista</v>
+      </c>
+      <c r="D5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>java</v>
+      </c>
+      <c r="C6" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>junior</v>
+      </c>
+      <c r="D6" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3">
+        <v>180</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>python</v>
+      </c>
+      <c r="C7" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>junior</v>
+      </c>
+      <c r="D7" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3">
+        <v>280</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B8" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C8" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>especialista</v>
+      </c>
+      <c r="D8" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C9" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>junior</v>
+      </c>
+      <c r="D9" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>java</v>
+      </c>
+      <c r="C10" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>senior</v>
+      </c>
+      <c r="D10" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>c</v>
+      </c>
+      <c r="C11" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>trainee</v>
+      </c>
+      <c r="D11" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11/H3</f>
+        <v>100</v>
+      </c>
+      <c r="I11" s="3">
+        <f>G11*I3*G3</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>c</v>
+      </c>
+      <c r="C12" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>trainee</v>
+      </c>
+      <c r="D12" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:H15" si="1">G12/H4</f>
+        <v>50</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I15" si="2">G12*I4*G4</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>java</v>
+      </c>
+      <c r="C13" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>especialista</v>
+      </c>
+      <c r="D13" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>133333.33333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="B14" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C14" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>especialista</v>
+      </c>
+      <c r="D14" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
         <v>100</v>
       </c>
-      <c r="L4">
-        <f>K4/I4</f>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>python</v>
+      </c>
+      <c r="C15" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>junior</v>
+      </c>
+      <c r="D15" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L8" si="0">K5/I5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>objective-c</v>
+      </c>
+      <c r="C16" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>trainee</v>
+      </c>
+      <c r="D16" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>java</v>
+      </c>
+      <c r="C17" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
+        <v>trainee</v>
+      </c>
+      <c r="D17" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -789,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DFE59F-DEA2-CA47-B478-E4A0C0F82554}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -890,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585252EE-2B1A-1D40-9D79-E430E2E0530B}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,97 +1284,168 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>swift</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F3*40</f>
+        <v>8000</v>
+      </c>
+      <c r="H3" s="2">
+        <f>B3*4*40</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>c</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>presencial</v>
+      </c>
+      <c r="F4" s="2">
+        <v>500</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G5" si="0">F4*40</f>
+        <v>20000</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H5" si="1">B4*4*40</f>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
+        <v>python</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
+        <v>remoto</v>
+      </c>
+      <c r="F5" s="2">
+        <v>700</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3">
-        <v>4000000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED378390-E185-534A-B958-C9E27BE0E9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A79DE-356F-CB44-B6E4-2465DA56DFD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="520" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
     <sheet name="Analysts" sheetId="1" r:id="rId2"/>
     <sheet name="Projects Variables" sheetId="4" r:id="rId3"/>
     <sheet name="Projects" sheetId="2" r:id="rId4"/>
+    <sheet name="Snapshot Projeto A" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>identifiação</t>
   </si>
@@ -220,6 +221,30 @@
   </si>
   <si>
     <t>Duração em meses</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Analistas disponiveis</t>
+  </si>
+  <si>
+    <t>Analistas</t>
+  </si>
+  <si>
+    <t>Identificação</t>
+  </si>
+  <si>
+    <t>treinee</t>
+  </si>
+  <si>
+    <t>Custo/h</t>
+  </si>
+  <si>
+    <t>Regime</t>
+  </si>
+  <si>
+    <t>horas</t>
   </si>
 </sst>
 </file>
@@ -265,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -288,20 +313,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,13 +784,14 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -710,42 +800,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -763,7 +853,7 @@
       </c>
       <c r="D3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -793,7 +883,7 @@
       </c>
       <c r="D4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -815,11 +905,11 @@
       </c>
       <c r="B5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>java</v>
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>junior</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -845,15 +935,15 @@
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>swift</v>
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>especialista</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -879,7 +969,7 @@
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>senior</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -905,7 +995,7 @@
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>python</v>
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -913,7 +1003,7 @@
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -922,22 +1012,22 @@
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>swift</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>trainee</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>remoto</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -945,26 +1035,26 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>swift</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>junior</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
         <v>remoto</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -974,29 +1064,29 @@
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>objective-c</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>senior</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2">
         <f>G11/H3</f>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3">
         <f>G11*I3*G3</f>
-        <v>80000</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1005,11 +1095,11 @@
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>java</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>especialista</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1036,11 +1126,11 @@
       </c>
       <c r="B13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>c</v>
       </c>
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>trainee</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1071,11 +1161,11 @@
       </c>
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>senior</v>
       </c>
       <c r="D14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
@@ -1098,15 +1188,15 @@
       </c>
       <c r="B15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>swift</v>
       </c>
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>especialista</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
@@ -1133,11 +1223,11 @@
       </c>
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>pleno</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1147,7 +1237,7 @@
       </c>
       <c r="B17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>c</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1275,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585252EE-2B1A-1D40-9D79-E430E2E0530B}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,40 +1383,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1339,7 +1429,7 @@
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>python</v>
       </c>
       <c r="D3" s="3">
         <v>4000000</v>
@@ -1369,14 +1459,14 @@
       </c>
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>swift</v>
       </c>
       <c r="D4" s="3">
         <v>1000000</v>
       </c>
       <c r="E4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
@@ -1399,7 +1489,7 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>java</v>
       </c>
       <c r="D5" s="3">
         <v>2000000</v>
@@ -1448,4 +1538,442 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DF3F6-B09F-354C-BDA3-8DF045C24F33}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="12"/>
+    <col min="6" max="6" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>200</v>
+      </c>
+      <c r="L3" s="2">
+        <v>8000</v>
+      </c>
+      <c r="M3" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
+        <v>180</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>68</v>
+      </c>
+      <c r="L7">
+        <f>K7/4*40</f>
+        <v>680</v>
+      </c>
+      <c r="M7" s="1">
+        <f>L7*I7</f>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <f>K8/1*40</f>
+        <v>2640</v>
+      </c>
+      <c r="M8" s="1">
+        <f>L8*I8</f>
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>66</v>
+      </c>
+      <c r="L9">
+        <f>K9/3*40</f>
+        <v>880</v>
+      </c>
+      <c r="M9" s="1">
+        <f>L9*I9</f>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f>L3-SUM(L7:L9)</f>
+        <v>3800</v>
+      </c>
+      <c r="M12" s="1">
+        <f>I3-SUM(M7:M9)</f>
+        <v>3736800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809A79DE-356F-CB44-B6E4-2465DA56DFD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E98F1-9306-5D45-A843-5E9DA8FF1DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="520" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
@@ -361,18 +361,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -387,6 +375,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,18 +800,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -845,15 +845,15 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>c</v>
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>pleno</v>
       </c>
       <c r="D3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -875,11 +875,11 @@
       </c>
       <c r="B4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>c</v>
       </c>
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>senior</v>
       </c>
       <c r="D4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -909,7 +909,7 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>especialista</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -935,15 +935,15 @@
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>objective-c</v>
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>trainee</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -965,7 +965,7 @@
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>objective-c</v>
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -999,7 +999,7 @@
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>junior</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1016,18 +1016,18 @@
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>senior</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
         <v>remoto</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1035,15 +1035,15 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>python</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>trainee</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>2</v>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>python</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>junior</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>c</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>senior</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1126,11 +1126,11 @@
       </c>
       <c r="B13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>python</v>
       </c>
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>senior</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>especialista</v>
       </c>
       <c r="D14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
@@ -1188,11 +1188,11 @@
       </c>
       <c r="B15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>java</v>
       </c>
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>senior</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1219,15 +1219,15 @@
       </c>
       <c r="B16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>swift</v>
       </c>
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>especialista</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1237,15 +1237,15 @@
       </c>
       <c r="B17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>java</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>pleno</v>
       </c>
       <c r="D17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
     </row>
   </sheetData>
@@ -1383,16 +1383,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>c</v>
       </c>
       <c r="D3" s="3">
         <v>4000000</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>swift</v>
       </c>
       <c r="D5" s="3">
         <v>2000000</v>
@@ -1542,16 +1542,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DF3F6-B09F-354C-BDA3-8DF045C24F33}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="12"/>
-    <col min="6" max="6" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="11.5" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1561,32 +1561,32 @@
     <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1617,20 +1617,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="2">
@@ -1655,28 +1655,28 @@
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1693,20 +1693,20 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G6" t="s">
@@ -1728,20 +1728,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
       <c r="G7" t="s">
@@ -1757,31 +1757,35 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="L7">
         <f>K7/4*40</f>
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="M7" s="1">
         <f>L7*I7</f>
-        <v>122400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>172800</v>
+      </c>
+      <c r="N7">
+        <f>K7*40</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
       <c r="G8" t="s">
@@ -1797,31 +1801,35 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="L8">
         <f>K8/1*40</f>
-        <v>2640</v>
+        <v>960</v>
       </c>
       <c r="M8" s="1">
         <f>L8*I8</f>
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>19200</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N9" si="0">K8*40</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>13</v>
       </c>
       <c r="G9" t="s">
@@ -1837,117 +1845,125 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L9">
         <f>K9/3*40</f>
-        <v>880</v>
+        <v>960</v>
       </c>
       <c r="M9" s="1">
         <f>L9*I9</f>
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>96000</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L12">
-        <f>L3-SUM(L7:L9)</f>
-        <v>3800</v>
+      <c r="K12">
+        <f>SUM(K7:K9)</f>
+        <v>192</v>
       </c>
       <c r="M12" s="1">
         <f>I3-SUM(M7:M9)</f>
-        <v>3736800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3712000</v>
+      </c>
+      <c r="N12">
+        <f>L3-SUM(N7:N9)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1961,7 +1977,7 @@
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">

--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E98F1-9306-5D45-A843-5E9DA8FF1DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A15EE79-0974-7C4E-946E-B5CD72911B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="5" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Projects Variables" sheetId="4" r:id="rId3"/>
     <sheet name="Projects" sheetId="2" r:id="rId4"/>
     <sheet name="Snapshot Projeto A" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
   <si>
     <t>identifiação</t>
   </si>
@@ -245,16 +246,38 @@
   </si>
   <si>
     <t>horas</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Quantidade tarefa</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Projeto C</t>
+  </si>
+  <si>
+    <t>Projeto B</t>
+  </si>
+  <si>
+    <t>Projeto A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00_);[Red]\(&quot;R$&quot;\ #,###.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,8 +292,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +340,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -350,11 +419,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -391,9 +682,106 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{027C0CC0-B777-F64D-942E-DAA44E278B96}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,15 +1233,15 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>swift</v>
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>especialista</v>
       </c>
       <c r="D3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -905,15 +1293,15 @@
       </c>
       <c r="B5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>python</v>
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>trainee</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -935,11 +1323,11 @@
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>swift</v>
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>especialista</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -965,11 +1353,11 @@
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>swift</v>
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>pleno</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -995,7 +1383,7 @@
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>swift</v>
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1012,15 +1400,15 @@
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>c</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>pleno</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>46</v>
@@ -1035,7 +1423,7 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>java</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1068,11 +1456,11 @@
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>especialista</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -1095,15 +1483,15 @@
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>java</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>pleno</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -1126,15 +1514,15 @@
       </c>
       <c r="B13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>c</v>
       </c>
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>junior</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1157,7 +1545,7 @@
       </c>
       <c r="B14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>java</v>
       </c>
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1188,11 +1576,11 @@
       </c>
       <c r="B15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>swift</v>
       </c>
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>pleno</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1219,11 +1607,11 @@
       </c>
       <c r="B16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>c</v>
       </c>
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>trainee</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1237,7 +1625,7 @@
       </c>
       <c r="B17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>python</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1429,14 +1817,14 @@
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>objective-c</v>
       </c>
       <c r="D3" s="3">
         <v>4000000</v>
       </c>
       <c r="E3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F3" s="2">
         <v>200</v>
@@ -1459,7 +1847,7 @@
       </c>
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>objective-c</v>
       </c>
       <c r="D4" s="3">
         <v>1000000</v>
@@ -1489,14 +1877,14 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>objective-c</v>
       </c>
       <c r="D5" s="3">
         <v>2000000</v>
       </c>
       <c r="E5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F5" s="2">
         <v>700</v>
@@ -1544,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DF3F6-B09F-354C-BDA3-8DF045C24F33}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1992,4 +2380,344 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C0DFED-83F7-D045-8406-2527F2003C0C}">
+  <dimension ref="A3:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="16" customWidth="1"/>
+    <col min="4" max="8" width="4.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="16" customWidth="1"/>
+    <col min="11" max="15" width="9" style="16"/>
+    <col min="16" max="16" width="17" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="50">
+        <v>6</v>
+      </c>
+      <c r="C4" s="49">
+        <v>8</v>
+      </c>
+      <c r="D4" s="48">
+        <v>11</v>
+      </c>
+      <c r="E4" s="47">
+        <v>2</v>
+      </c>
+      <c r="F4" s="46">
+        <v>14</v>
+      </c>
+      <c r="G4" s="45">
+        <v>7</v>
+      </c>
+      <c r="H4" s="44">
+        <v>5</v>
+      </c>
+      <c r="I4" s="43">
+        <v>13</v>
+      </c>
+      <c r="J4" s="42">
+        <v>1</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="40">
+        <v>20</v>
+      </c>
+      <c r="C5" s="39">
+        <v>75</v>
+      </c>
+      <c r="D5" s="38">
+        <v>45</v>
+      </c>
+      <c r="E5" s="37">
+        <v>12</v>
+      </c>
+      <c r="F5" s="36">
+        <v>85</v>
+      </c>
+      <c r="G5" s="35">
+        <v>180</v>
+      </c>
+      <c r="H5" s="34">
+        <v>147</v>
+      </c>
+      <c r="I5" s="33">
+        <v>84</v>
+      </c>
+      <c r="J5" s="32">
+        <v>45</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="30">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29">
+        <v>12</v>
+      </c>
+      <c r="D7" s="28">
+        <v>9</v>
+      </c>
+      <c r="E7" s="30">
+        <v>5</v>
+      </c>
+      <c r="F7" s="29">
+        <v>6</v>
+      </c>
+      <c r="G7" s="28">
+        <v>15</v>
+      </c>
+      <c r="H7" s="30">
+        <v>13</v>
+      </c>
+      <c r="I7" s="29">
+        <v>2</v>
+      </c>
+      <c r="J7" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="26">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>90</v>
+      </c>
+      <c r="D8" s="24">
+        <v>41</v>
+      </c>
+      <c r="E8" s="26">
+        <v>42</v>
+      </c>
+      <c r="F8" s="25">
+        <v>54</v>
+      </c>
+      <c r="G8" s="24">
+        <v>129</v>
+      </c>
+      <c r="H8" s="26">
+        <v>145</v>
+      </c>
+      <c r="I8" s="25">
+        <v>11</v>
+      </c>
+      <c r="J8" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>8</v>
+      </c>
+      <c r="D10" s="28">
+        <v>11</v>
+      </c>
+      <c r="E10" s="30">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>14</v>
+      </c>
+      <c r="G10" s="28">
+        <v>9</v>
+      </c>
+      <c r="H10" s="30">
+        <v>5</v>
+      </c>
+      <c r="I10" s="29">
+        <v>15</v>
+      </c>
+      <c r="J10" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="26">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25">
+        <v>18</v>
+      </c>
+      <c r="D11" s="24">
+        <v>99</v>
+      </c>
+      <c r="E11" s="26">
+        <v>22</v>
+      </c>
+      <c r="F11" s="25">
+        <v>28</v>
+      </c>
+      <c r="G11" s="24">
+        <v>94</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>195</v>
+      </c>
+      <c r="J11" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="30">
+        <v>3</v>
+      </c>
+      <c r="C13" s="29">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28">
+        <v>13</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>6</v>
+      </c>
+      <c r="G13" s="28">
+        <v>9</v>
+      </c>
+      <c r="H13" s="30">
+        <v>7</v>
+      </c>
+      <c r="I13" s="29">
+        <v>14</v>
+      </c>
+      <c r="J13" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="26">
+        <v>56</v>
+      </c>
+      <c r="C14" s="25">
+        <v>4</v>
+      </c>
+      <c r="D14" s="24">
+        <v>42</v>
+      </c>
+      <c r="E14" s="26">
+        <v>111</v>
+      </c>
+      <c r="F14" s="25">
+        <v>36</v>
+      </c>
+      <c r="G14" s="24">
+        <v>12</v>
+      </c>
+      <c r="H14" s="26">
+        <v>8</v>
+      </c>
+      <c r="I14" s="25">
+        <v>55</v>
+      </c>
+      <c r="J14" s="24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A15EE79-0974-7C4E-946E-B5CD72911B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61702225-131E-F841-9632-73DE3010FCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="5" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>identifiação</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Identificação</t>
-  </si>
-  <si>
-    <t>treinee</t>
   </si>
   <si>
     <t>Custo/h</t>
@@ -667,21 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
@@ -769,13 +751,28 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1169,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,18 +1185,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="F1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1233,11 +1230,11 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>c</v>
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>junior</v>
       </c>
       <c r="D3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1263,11 +1260,11 @@
       </c>
       <c r="B4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>swift</v>
       </c>
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>especialista</v>
       </c>
       <c r="D4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1293,7 +1290,7 @@
       </c>
       <c r="B5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>c</v>
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1323,7 +1320,7 @@
       </c>
       <c r="B6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>objective-c</v>
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1331,7 +1328,7 @@
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1361,7 +1358,7 @@
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
@@ -1387,11 +1384,11 @@
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>senior</v>
       </c>
       <c r="D8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1400,22 +1397,22 @@
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>swift</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>trainee</v>
       </c>
       <c r="D9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
         <v>presencial</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1423,7 +1420,7 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>c</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1452,15 +1449,15 @@
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>java</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>pleno</v>
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -1491,7 +1488,7 @@
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -1514,15 +1511,15 @@
       </c>
       <c r="B13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>objective-c</v>
       </c>
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>trainee</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1549,11 +1546,11 @@
       </c>
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>junior</v>
       </c>
       <c r="D14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
@@ -1576,11 +1573,11 @@
       </c>
       <c r="B15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>python</v>
       </c>
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>junior</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1607,15 +1604,15 @@
       </c>
       <c r="B16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>java</v>
       </c>
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>especialista</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1625,15 +1622,15 @@
       </c>
       <c r="B17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>java</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>senior</v>
       </c>
       <c r="D17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
     </row>
   </sheetData>
@@ -1771,16 +1768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1854,7 +1851,7 @@
       </c>
       <c r="E4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
@@ -1877,14 +1874,14 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>java</v>
       </c>
       <c r="D5" s="3">
         <v>2000000</v>
       </c>
       <c r="E5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F5" s="2">
         <v>700</v>
@@ -1932,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DF3F6-B09F-354C-BDA3-8DF045C24F33}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,22 +1947,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -2028,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="3">
-        <v>4000000</v>
+        <v>300800</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -2070,16 +2067,16 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2089,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -2104,16 +2101,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
         <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
       </c>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2180,28 +2177,28 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
       <c r="K8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L8">
-        <f>K8/1*40</f>
-        <v>960</v>
+        <f>K8/2*40</f>
+        <v>640</v>
       </c>
       <c r="M8" s="1">
         <f>L8*I8</f>
-        <v>19200</v>
+        <v>32000</v>
       </c>
       <c r="N8">
         <f t="shared" ref="N8:N9" si="0">K8*40</f>
-        <v>960</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2275,6 +2272,10 @@
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="M11" s="1">
+        <f>SUM(M7:M9)</f>
+        <v>300800</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2291,15 +2292,15 @@
       </c>
       <c r="K12">
         <f>SUM(K7:K9)</f>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M12" s="1">
         <f>I3-SUM(M7:M9)</f>
-        <v>3712000</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <f>L3-SUM(N7:N9)</f>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2386,331 +2387,331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C0DFED-83F7-D045-8406-2527F2003C0C}">
   <dimension ref="A3:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="16" customWidth="1"/>
-    <col min="4" max="8" width="4.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="16" customWidth="1"/>
-    <col min="11" max="15" width="9" style="16"/>
-    <col min="16" max="16" width="17" style="16" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="11" customWidth="1"/>
+    <col min="4" max="8" width="4.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="11" customWidth="1"/>
+    <col min="11" max="15" width="9" style="11"/>
+    <col min="16" max="16" width="17" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
-      <c r="H3" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="H3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="45">
+        <v>6</v>
+      </c>
+      <c r="C4" s="44">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43">
+        <v>11</v>
+      </c>
+      <c r="E4" s="42">
+        <v>2</v>
+      </c>
+      <c r="F4" s="41">
+        <v>14</v>
+      </c>
+      <c r="G4" s="40">
+        <v>7</v>
+      </c>
+      <c r="H4" s="39">
+        <v>5</v>
+      </c>
+      <c r="I4" s="38">
+        <v>13</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="35">
+        <v>20</v>
+      </c>
+      <c r="C5" s="34">
+        <v>75</v>
+      </c>
+      <c r="D5" s="33">
+        <v>45</v>
+      </c>
+      <c r="E5" s="32">
+        <v>12</v>
+      </c>
+      <c r="F5" s="31">
+        <v>85</v>
+      </c>
+      <c r="G5" s="30">
+        <v>180</v>
+      </c>
+      <c r="H5" s="29">
+        <v>147</v>
+      </c>
+      <c r="I5" s="28">
+        <v>84</v>
+      </c>
+      <c r="J5" s="27">
+        <v>45</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="50">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>12</v>
+      </c>
+      <c r="D7" s="23">
+        <v>9</v>
+      </c>
+      <c r="E7" s="25">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24">
         <v>6</v>
       </c>
-      <c r="C4" s="49">
+      <c r="G7" s="23">
+        <v>15</v>
+      </c>
+      <c r="H7" s="25">
+        <v>13</v>
+      </c>
+      <c r="I7" s="24">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="21">
         <v>8</v>
       </c>
-      <c r="D4" s="48">
+      <c r="C8" s="20">
+        <v>90</v>
+      </c>
+      <c r="D8" s="19">
+        <v>41</v>
+      </c>
+      <c r="E8" s="21">
+        <v>42</v>
+      </c>
+      <c r="F8" s="20">
+        <v>54</v>
+      </c>
+      <c r="G8" s="19">
+        <v>129</v>
+      </c>
+      <c r="H8" s="21">
+        <v>145</v>
+      </c>
+      <c r="I8" s="20">
         <v>11</v>
       </c>
-      <c r="E4" s="47">
+      <c r="J8" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24">
+        <v>8</v>
+      </c>
+      <c r="D10" s="23">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F10" s="24">
         <v>14</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G10" s="23">
+        <v>9</v>
+      </c>
+      <c r="H10" s="25">
+        <v>5</v>
+      </c>
+      <c r="I10" s="24">
+        <v>15</v>
+      </c>
+      <c r="J10" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="21">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19">
+        <v>99</v>
+      </c>
+      <c r="E11" s="21">
+        <v>22</v>
+      </c>
+      <c r="F11" s="20">
+        <v>28</v>
+      </c>
+      <c r="G11" s="19">
+        <v>94</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>195</v>
+      </c>
+      <c r="J11" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="24">
+        <v>11</v>
+      </c>
+      <c r="D13" s="23">
+        <v>13</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2</v>
+      </c>
+      <c r="F13" s="24">
+        <v>6</v>
+      </c>
+      <c r="G13" s="23">
+        <v>9</v>
+      </c>
+      <c r="H13" s="25">
         <v>7</v>
       </c>
-      <c r="H4" s="44">
-        <v>5</v>
-      </c>
-      <c r="I4" s="43">
-        <v>13</v>
-      </c>
-      <c r="J4" s="42">
-        <v>1</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="40">
-        <v>20</v>
-      </c>
-      <c r="C5" s="39">
-        <v>75</v>
-      </c>
-      <c r="D5" s="38">
-        <v>45</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="I13" s="24">
+        <v>14</v>
+      </c>
+      <c r="J13" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="21">
+        <v>56</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19">
+        <v>42</v>
+      </c>
+      <c r="E14" s="21">
+        <v>111</v>
+      </c>
+      <c r="F14" s="20">
+        <v>36</v>
+      </c>
+      <c r="G14" s="19">
         <v>12</v>
       </c>
-      <c r="F5" s="36">
-        <v>85</v>
-      </c>
-      <c r="G5" s="35">
-        <v>180</v>
-      </c>
-      <c r="H5" s="34">
-        <v>147</v>
-      </c>
-      <c r="I5" s="33">
-        <v>84</v>
-      </c>
-      <c r="J5" s="32">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P6" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="30">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29">
-        <v>12</v>
-      </c>
-      <c r="D7" s="28">
-        <v>9</v>
-      </c>
-      <c r="E7" s="30">
-        <v>5</v>
-      </c>
-      <c r="F7" s="29">
-        <v>6</v>
-      </c>
-      <c r="G7" s="28">
-        <v>15</v>
-      </c>
-      <c r="H7" s="30">
-        <v>13</v>
-      </c>
-      <c r="I7" s="29">
-        <v>2</v>
-      </c>
-      <c r="J7" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="H14" s="21">
         <v>8</v>
       </c>
-      <c r="C8" s="25">
-        <v>90</v>
-      </c>
-      <c r="D8" s="24">
-        <v>41</v>
-      </c>
-      <c r="E8" s="26">
-        <v>42</v>
-      </c>
-      <c r="F8" s="25">
-        <v>54</v>
-      </c>
-      <c r="G8" s="24">
-        <v>129</v>
-      </c>
-      <c r="H8" s="26">
-        <v>145</v>
-      </c>
-      <c r="I8" s="25">
-        <v>11</v>
-      </c>
-      <c r="J8" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="30">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
-        <v>8</v>
-      </c>
-      <c r="D10" s="28">
-        <v>11</v>
-      </c>
-      <c r="E10" s="30">
-        <v>2</v>
-      </c>
-      <c r="F10" s="29">
-        <v>14</v>
-      </c>
-      <c r="G10" s="28">
-        <v>9</v>
-      </c>
-      <c r="H10" s="30">
-        <v>5</v>
-      </c>
-      <c r="I10" s="29">
-        <v>15</v>
-      </c>
-      <c r="J10" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="26">
-        <v>12</v>
-      </c>
-      <c r="C11" s="25">
-        <v>18</v>
-      </c>
-      <c r="D11" s="24">
-        <v>99</v>
-      </c>
-      <c r="E11" s="26">
-        <v>22</v>
-      </c>
-      <c r="F11" s="25">
-        <v>28</v>
-      </c>
-      <c r="G11" s="24">
-        <v>94</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1</v>
-      </c>
-      <c r="I11" s="25">
-        <v>195</v>
-      </c>
-      <c r="J11" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="30">
-        <v>3</v>
-      </c>
-      <c r="C13" s="29">
-        <v>11</v>
-      </c>
-      <c r="D13" s="28">
-        <v>13</v>
-      </c>
-      <c r="E13" s="30">
-        <v>2</v>
-      </c>
-      <c r="F13" s="29">
-        <v>6</v>
-      </c>
-      <c r="G13" s="28">
-        <v>9</v>
-      </c>
-      <c r="H13" s="30">
-        <v>7</v>
-      </c>
-      <c r="I13" s="29">
-        <v>14</v>
-      </c>
-      <c r="J13" s="28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="26">
-        <v>56</v>
-      </c>
-      <c r="C14" s="25">
-        <v>4</v>
-      </c>
-      <c r="D14" s="24">
-        <v>42</v>
-      </c>
-      <c r="E14" s="26">
-        <v>111</v>
-      </c>
-      <c r="F14" s="25">
-        <v>36</v>
-      </c>
-      <c r="G14" s="24">
-        <v>12</v>
-      </c>
-      <c r="H14" s="26">
-        <v>8</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="I14" s="20">
         <v>55</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="19">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Sheets/Project-x-Analysts-Model.xlsx
+++ b/Sheets/Project-x-Analysts-Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardooliveira/Developer/projects-x-analysts/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61702225-131E-F841-9632-73DE3010FCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283D9D2E-B22A-804A-99AF-E73AFAF7C63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="4" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="5" xr2:uid="{37FD05BD-93FE-AB4A-9A22-5B5961D2C4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyst Variables" sheetId="3" r:id="rId1"/>
@@ -1230,15 +1230,15 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>java</v>
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>trainee</v>
       </c>
       <c r="D3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1260,11 +1260,11 @@
       </c>
       <c r="B4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>c</v>
       </c>
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>junior</v>
       </c>
       <c r="D4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>pleno</v>
       </c>
       <c r="D5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>senior</v>
       </c>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1350,11 +1350,11 @@
       </c>
       <c r="B7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>java</v>
       </c>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>junior</v>
       </c>
       <c r="D7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>c</v>
       </c>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>swift</v>
+        <v>python</v>
       </c>
       <c r="C9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>c</v>
+        <v>objective-c</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>junior</v>
       </c>
       <c r="D10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>objective-c</v>
       </c>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="D11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -1480,15 +1480,15 @@
       </c>
       <c r="B12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>c</v>
       </c>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>pleno</v>
+        <v>senior</v>
       </c>
       <c r="D12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -1511,11 +1511,11 @@
       </c>
       <c r="B13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>swift</v>
       </c>
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>trainee</v>
+        <v>pleno</v>
       </c>
       <c r="D13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1542,15 +1542,15 @@
       </c>
       <c r="B14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>python</v>
       </c>
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>senior</v>
       </c>
       <c r="D14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
@@ -1573,11 +1573,11 @@
       </c>
       <c r="B15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>python</v>
+        <v>c</v>
       </c>
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>junior</v>
+        <v>senior</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
@@ -1604,15 +1604,15 @@
       </c>
       <c r="B16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>objective-c</v>
       </c>
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>especialista</v>
+        <v>trainee</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="M16" s="1"/>
     </row>
@@ -1622,15 +1622,15 @@
       </c>
       <c r="B17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>objective-c</v>
       </c>
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX('Analyst Variables'!$B$2:$B$6, RANDBETWEEN(1,5),1)</f>
-        <v>senior</v>
+        <v>especialista</v>
       </c>
       <c r="D17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
     </row>
   </sheetData>
@@ -1814,14 +1814,14 @@
       </c>
       <c r="C3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>python</v>
       </c>
       <c r="D3" s="3">
         <v>4000000</v>
       </c>
       <c r="E3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F3" s="2">
         <v>200</v>
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>objective-c</v>
+        <v>c</v>
       </c>
       <c r="D4" s="3">
         <v>1000000</v>
       </c>
       <c r="E4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>presencial</v>
+        <v>remoto</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
@@ -1874,14 +1874,14 @@
       </c>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX('Analyst Variables'!$A$2:$A$6, RANDBETWEEN(1,5),1)</f>
-        <v>java</v>
+        <v>swift</v>
       </c>
       <c r="D5" s="3">
         <v>2000000</v>
       </c>
       <c r="E5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX('Analyst Variables'!$C$2:$C$6, RANDBETWEEN(1,2),1)</f>
-        <v>remoto</v>
+        <v>presencial</v>
       </c>
       <c r="F5" s="2">
         <v>700</v>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DF3F6-B09F-354C-BDA3-8DF045C24F33}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C0DFED-83F7-D045-8406-2527F2003C0C}">
   <dimension ref="A3:P19"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
